--- a/project3/Workbook1.xlsx
+++ b/project3/Workbook1.xlsx
@@ -29,10 +29,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>NUM</t>
+    <t>fix#2</t>
   </si>
   <si>
-    <t>fix2</t>
+    <t xml:space="preserve">            NUMPAD
+NUMT</t>
   </si>
 </sst>
 </file>
@@ -56,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,12 +65,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,6 +95,1199 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.229077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.751908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.359556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.505483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166.953967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167.341611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.529879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.29118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169.765596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>169.896109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>168.73223</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170.053567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167.441082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168.570104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.739516</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169.833351</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170.364281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.014078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.747796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.996909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.925043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.960793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.651342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.428803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.827741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.190105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109.713182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.918049</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121.674484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>126.376716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121.955309</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.373755</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.314877</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142.817868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.969554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.914249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.543619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.905505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.887507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.789068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.351292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.055892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.912393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.721088</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.776155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.39672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112.730675</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.849004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.720921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165.966151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>152.739381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1671535456"/>
+        <c:axId val="-1636285088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1671535456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1636285088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1636285088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1671535456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,14 +1556,17 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -581,25 +1790,35 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7">
+        <v>170.84379799999999</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
+      <c r="B8">
+        <v>162.09097399999999</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
+      <c r="B9">
+        <v>184.65259900000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project3/Workbook1.xlsx
+++ b/project3/Workbook1.xlsx
@@ -526,11 +526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1671535456"/>
-        <c:axId val="-1636285088"/>
+        <c:axId val="-1941130576"/>
+        <c:axId val="-1941128704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1671535456"/>
+        <c:axId val="-1941130576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1636285088"/>
+        <c:crossAx val="-1941128704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1636285088"/>
+        <c:axId val="-1941128704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671535456"/>
+        <c:crossAx val="-1941130576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1259,16 +1259,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1553,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R4"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1817,6 +1817,179 @@
         <v>184.65259900000001</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>179.87795299999999</v>
+      </c>
+      <c r="C13">
+        <v>183.35587100000001</v>
+      </c>
+      <c r="D13">
+        <v>176.681567</v>
+      </c>
+      <c r="E13">
+        <v>177.056175</v>
+      </c>
+      <c r="F13">
+        <v>181.25053800000001</v>
+      </c>
+      <c r="G13">
+        <v>178.07139799999999</v>
+      </c>
+      <c r="H13">
+        <v>179.26929799999999</v>
+      </c>
+      <c r="I13">
+        <v>185.13461599999999</v>
+      </c>
+      <c r="J13">
+        <v>168.26872499999999</v>
+      </c>
+      <c r="K13">
+        <v>169.01170400000001</v>
+      </c>
+      <c r="L13">
+        <v>172.56851</v>
+      </c>
+      <c r="M13">
+        <v>181.375461</v>
+      </c>
+      <c r="N13">
+        <v>176.92695599999999</v>
+      </c>
+      <c r="O13">
+        <v>176.48434399999999</v>
+      </c>
+      <c r="P13">
+        <v>176.464879</v>
+      </c>
+      <c r="Q13">
+        <v>182.13941</v>
+      </c>
+      <c r="R13">
+        <v>178.56106600000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>34.884045</v>
+      </c>
+      <c r="C14">
+        <v>34.712730000000001</v>
+      </c>
+      <c r="D14">
+        <v>40.416818999999997</v>
+      </c>
+      <c r="E14">
+        <v>46.175725999999997</v>
+      </c>
+      <c r="F14">
+        <v>48.567855000000002</v>
+      </c>
+      <c r="G14">
+        <v>44.938367</v>
+      </c>
+      <c r="H14">
+        <v>46.302512999999998</v>
+      </c>
+      <c r="I14">
+        <v>71.035340000000005</v>
+      </c>
+      <c r="J14">
+        <v>64.556528999999998</v>
+      </c>
+      <c r="K14">
+        <v>65.428647999999995</v>
+      </c>
+      <c r="L14">
+        <v>66.771720999999999</v>
+      </c>
+      <c r="M14">
+        <v>63.314881999999997</v>
+      </c>
+      <c r="N14">
+        <v>68.232256000000007</v>
+      </c>
+      <c r="O14">
+        <v>69.510092999999998</v>
+      </c>
+      <c r="P14">
+        <v>69.109575000000007</v>
+      </c>
+      <c r="Q14">
+        <v>73.742369999999994</v>
+      </c>
+      <c r="R14">
+        <v>69.445167999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>71.747335000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/project3/Workbook1.xlsx
+++ b/project3/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,63 +177,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$R$1</c:f>
+              <c:f>Sheet1!$B$13:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>183.686777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>181.108566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>177.716959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>177.304965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>168.82481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>177.507178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>173.032084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>179.176951</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0</c:v>
+                  <c:v>183.147667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0</c:v>
+                  <c:v>182.523386</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0</c:v>
+                  <c:v>176.854988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.0</c:v>
+                  <c:v>181.702553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.0</c:v>
+                  <c:v>169.251991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.0</c:v>
+                  <c:v>180.286565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.0</c:v>
+                  <c:v>180.484239</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.0</c:v>
+                  <c:v>181.258751</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.0</c:v>
+                  <c:v>182.922368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -269,63 +266,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$R$2</c:f>
+              <c:f>Sheet1!$B$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>36.716077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169.229077</c:v>
+                  <c:v>40.835036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169.751908</c:v>
+                  <c:v>52.904874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>174.359556</c:v>
+                  <c:v>65.69018199999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.505483</c:v>
+                  <c:v>61.632617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>166.953967</c:v>
+                  <c:v>58.805628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167.341611</c:v>
+                  <c:v>75.489645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.529879</c:v>
+                  <c:v>79.27558000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174.29118</c:v>
+                  <c:v>73.61236100000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>169.765596</c:v>
+                  <c:v>75.478819</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>169.896109</c:v>
+                  <c:v>77.064164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>168.73223</c:v>
+                  <c:v>65.766866</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>170.053567</c:v>
+                  <c:v>72.812927</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>167.441082</c:v>
+                  <c:v>84.86659</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168.570104</c:v>
+                  <c:v>73.277118</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>170.739516</c:v>
+                  <c:v>73.43357</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169.833351</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>170.364281</c:v>
+                  <c:v>79.751017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,155 +355,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$R$3</c:f>
+              <c:f>Sheet1!$B$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>67.079429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.014078</c:v>
+                  <c:v>60.90134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.747796</c:v>
+                  <c:v>67.68888200000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.996909</c:v>
+                  <c:v>75.971101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.925043</c:v>
+                  <c:v>74.440348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.960793</c:v>
+                  <c:v>69.955264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.651342</c:v>
+                  <c:v>69.014541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.428803</c:v>
+                  <c:v>77.50390899999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111.827741</c:v>
+                  <c:v>80.132058</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.190105</c:v>
+                  <c:v>77.76337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109.713182</c:v>
+                  <c:v>74.963783</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.918049</c:v>
+                  <c:v>79.803683</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>121.674484</c:v>
+                  <c:v>76.69138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>126.376716</c:v>
+                  <c:v>93.907295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>121.955309</c:v>
+                  <c:v>91.550988</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112.373755</c:v>
+                  <c:v>92.38600700000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>146.314877</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>142.817868</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$R$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.969554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.914249</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.543619</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.905505</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66.887507</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.789068</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>73.351292</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>111.055892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110.912393</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>104.721088</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>103.776155</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>111.39672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112.730675</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>111.849004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>111.720921</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>165.966151</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>152.739381</c:v>
+                  <c:v>97.273189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,11 +425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1941130576"/>
-        <c:axId val="-1941128704"/>
+        <c:axId val="1969963520"/>
+        <c:axId val="1963360864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1941130576"/>
+        <c:axId val="1969963520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941128704"/>
+        <c:crossAx val="1963360864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941128704"/>
+        <c:axId val="1963360864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +499,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -631,7 +529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941130576"/>
+        <c:crossAx val="1969963520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1259,20 +1157,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1555,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1875,55 +1773,55 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>179.87795299999999</v>
+        <v>183.68677700000001</v>
       </c>
       <c r="C13">
-        <v>183.35587100000001</v>
+        <v>181.108566</v>
       </c>
       <c r="D13">
-        <v>176.681567</v>
+        <v>177.716959</v>
       </c>
       <c r="E13">
-        <v>177.056175</v>
+        <v>177.30496500000001</v>
       </c>
       <c r="F13">
-        <v>181.25053800000001</v>
+        <v>168.82481000000001</v>
       </c>
       <c r="G13">
-        <v>178.07139799999999</v>
+        <v>177.50717800000001</v>
       </c>
       <c r="H13">
-        <v>179.26929799999999</v>
+        <v>173.032084</v>
       </c>
       <c r="I13">
-        <v>185.13461599999999</v>
+        <v>179.176951</v>
       </c>
       <c r="J13">
-        <v>168.26872499999999</v>
+        <v>183.14766700000001</v>
       </c>
       <c r="K13">
-        <v>169.01170400000001</v>
+        <v>182.52338599999999</v>
       </c>
       <c r="L13">
-        <v>172.56851</v>
+        <v>176.85498799999999</v>
       </c>
       <c r="M13">
-        <v>181.375461</v>
+        <v>181.70255299999999</v>
       </c>
       <c r="N13">
-        <v>176.92695599999999</v>
+        <v>169.251991</v>
       </c>
       <c r="O13">
-        <v>176.48434399999999</v>
+        <v>180.286565</v>
       </c>
       <c r="P13">
-        <v>176.464879</v>
+        <v>180.484239</v>
       </c>
       <c r="Q13">
-        <v>182.13941</v>
+        <v>181.25875099999999</v>
       </c>
       <c r="R13">
-        <v>178.56106600000001</v>
+        <v>182.92236800000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1931,55 +1829,55 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>34.884045</v>
+        <v>36.716076999999999</v>
       </c>
       <c r="C14">
-        <v>34.712730000000001</v>
+        <v>40.835036000000002</v>
       </c>
       <c r="D14">
-        <v>40.416818999999997</v>
+        <v>52.904874</v>
       </c>
       <c r="E14">
-        <v>46.175725999999997</v>
+        <v>65.690181999999993</v>
       </c>
       <c r="F14">
-        <v>48.567855000000002</v>
+        <v>61.632617000000003</v>
       </c>
       <c r="G14">
-        <v>44.938367</v>
+        <v>58.805627999999999</v>
       </c>
       <c r="H14">
-        <v>46.302512999999998</v>
+        <v>75.489644999999996</v>
       </c>
       <c r="I14">
-        <v>71.035340000000005</v>
+        <v>79.275580000000005</v>
       </c>
       <c r="J14">
-        <v>64.556528999999998</v>
+        <v>73.612361000000007</v>
       </c>
       <c r="K14">
-        <v>65.428647999999995</v>
+        <v>75.478819000000001</v>
       </c>
       <c r="L14">
-        <v>66.771720999999999</v>
+        <v>77.064164000000005</v>
       </c>
       <c r="M14">
-        <v>63.314881999999997</v>
+        <v>65.766865999999993</v>
       </c>
       <c r="N14">
-        <v>68.232256000000007</v>
+        <v>72.812927000000002</v>
       </c>
       <c r="O14">
-        <v>69.510092999999998</v>
+        <v>84.866590000000002</v>
       </c>
       <c r="P14">
-        <v>69.109575000000007</v>
+        <v>73.277118000000002</v>
       </c>
       <c r="Q14">
-        <v>73.742369999999994</v>
+        <v>73.433570000000003</v>
       </c>
       <c r="R14">
-        <v>69.445167999999995</v>
+        <v>79.751017000000004</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1987,7 +1885,55 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>71.747335000000007</v>
+        <v>67.079429000000005</v>
+      </c>
+      <c r="C15">
+        <v>60.901339999999998</v>
+      </c>
+      <c r="D15">
+        <v>67.688882000000007</v>
+      </c>
+      <c r="E15">
+        <v>75.971101000000004</v>
+      </c>
+      <c r="F15">
+        <v>74.440348</v>
+      </c>
+      <c r="G15">
+        <v>69.955264</v>
+      </c>
+      <c r="H15">
+        <v>69.014540999999994</v>
+      </c>
+      <c r="I15">
+        <v>77.503908999999993</v>
+      </c>
+      <c r="J15">
+        <v>80.132058000000001</v>
+      </c>
+      <c r="K15">
+        <v>77.763369999999995</v>
+      </c>
+      <c r="L15">
+        <v>74.963783000000006</v>
+      </c>
+      <c r="M15">
+        <v>79.803683000000007</v>
+      </c>
+      <c r="N15">
+        <v>76.691379999999995</v>
+      </c>
+      <c r="O15">
+        <v>93.907295000000005</v>
+      </c>
+      <c r="P15">
+        <v>91.550988000000004</v>
+      </c>
+      <c r="Q15">
+        <v>92.386007000000006</v>
+      </c>
+      <c r="R15">
+        <v>97.273189000000002</v>
       </c>
     </row>
   </sheetData>

--- a/project3/Workbook1.xlsx
+++ b/project3/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>fix#2</t>
   </si>
   <si>
     <t xml:space="preserve">            NUMPAD
 NUMT</t>
+  </si>
+  <si>
+    <t>fix #1</t>
+  </si>
+  <si>
+    <t>fix #2</t>
   </si>
 </sst>
 </file>
@@ -182,55 +188,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>183.686777</c:v>
+                  <c:v>344.711692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181.108566</c:v>
+                  <c:v>338.592808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177.716959</c:v>
+                  <c:v>325.934617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.304965</c:v>
+                  <c:v>344.317047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.82481</c:v>
+                  <c:v>325.277299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.507178</c:v>
+                  <c:v>318.013054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173.032084</c:v>
+                  <c:v>331.394675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>179.176951</c:v>
+                  <c:v>339.19289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>183.147667</c:v>
+                  <c:v>330.747986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>182.523386</c:v>
+                  <c:v>328.774329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>176.854988</c:v>
+                  <c:v>324.899484</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>181.702553</c:v>
+                  <c:v>331.76574</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>169.251991</c:v>
+                  <c:v>330.332811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>180.286565</c:v>
+                  <c:v>321.310949</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180.484239</c:v>
+                  <c:v>325.504939</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>181.258751</c:v>
+                  <c:v>342.430572</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>182.922368</c:v>
+                  <c:v>328.498924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,55 +277,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>36.716077</c:v>
+                  <c:v>337.518564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.835036</c:v>
+                  <c:v>365.607319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.904874</c:v>
+                  <c:v>409.064878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.69018199999999</c:v>
+                  <c:v>682.430817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.632617</c:v>
+                  <c:v>629.653533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.805628</c:v>
+                  <c:v>661.288189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.489645</c:v>
+                  <c:v>632.721176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.27558000000001</c:v>
+                  <c:v>702.827121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.61236100000001</c:v>
+                  <c:v>645.598631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.478819</c:v>
+                  <c:v>664.451827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.064164</c:v>
+                  <c:v>625.25401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.766866</c:v>
+                  <c:v>664.551179</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.812927</c:v>
+                  <c:v>641.724957</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.86659</c:v>
+                  <c:v>651.253663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73.277118</c:v>
+                  <c:v>629.84191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.43357</c:v>
+                  <c:v>690.405096</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.751017</c:v>
+                  <c:v>643.469588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,55 +366,410 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>67.079429</c:v>
+                  <c:v>333.736598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.90134</c:v>
+                  <c:v>372.415206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.68888200000001</c:v>
+                  <c:v>413.052458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.971101</c:v>
+                  <c:v>593.788967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.440348</c:v>
+                  <c:v>545.8813259999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.955264</c:v>
+                  <c:v>534.730763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.014541</c:v>
+                  <c:v>536.0565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.50390899999999</c:v>
+                  <c:v>622.6650059999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.132058</c:v>
+                  <c:v>533.27645</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.76337</c:v>
+                  <c:v>571.23272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.963783</c:v>
+                  <c:v>539.803781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.803683</c:v>
+                  <c:v>617.426874</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76.69138</c:v>
+                  <c:v>586.579072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.907295</c:v>
+                  <c:v>907.194049</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.550988</c:v>
+                  <c:v>949.64507</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>92.38600700000001</c:v>
+                  <c:v>1065.530103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.273189</c:v>
+                  <c:v>982.197668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>338.980178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700.905921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1055.576079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1055.576079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,11 +786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1969963520"/>
-        <c:axId val="1963360864"/>
+        <c:axId val="1011700640"/>
+        <c:axId val="1010238032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1969963520"/>
+        <c:axId val="1011700640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963360864"/>
+        <c:crossAx val="1010238032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -479,7 +840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1963360864"/>
+        <c:axId val="1010238032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1969963520"/>
+        <c:crossAx val="1011700640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1157,20 +1518,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1451,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:R15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,6 +2077,9 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
       <c r="B12">
         <v>0</v>
       </c>
@@ -1773,55 +2137,55 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>183.68677700000001</v>
+        <v>344.71169200000003</v>
       </c>
       <c r="C13">
-        <v>181.108566</v>
+        <v>338.59280799999999</v>
       </c>
       <c r="D13">
-        <v>177.716959</v>
+        <v>325.934617</v>
       </c>
       <c r="E13">
-        <v>177.30496500000001</v>
+        <v>344.317047</v>
       </c>
       <c r="F13">
-        <v>168.82481000000001</v>
+        <v>325.27729900000003</v>
       </c>
       <c r="G13">
-        <v>177.50717800000001</v>
+        <v>318.01305400000001</v>
       </c>
       <c r="H13">
-        <v>173.032084</v>
+        <v>331.39467500000001</v>
       </c>
       <c r="I13">
-        <v>179.176951</v>
+        <v>339.19288999999998</v>
       </c>
       <c r="J13">
-        <v>183.14766700000001</v>
+        <v>330.74798600000003</v>
       </c>
       <c r="K13">
-        <v>182.52338599999999</v>
+        <v>328.77432900000002</v>
       </c>
       <c r="L13">
-        <v>176.85498799999999</v>
+        <v>324.89948399999997</v>
       </c>
       <c r="M13">
-        <v>181.70255299999999</v>
+        <v>331.76573999999999</v>
       </c>
       <c r="N13">
-        <v>169.251991</v>
+        <v>330.33281099999999</v>
       </c>
       <c r="O13">
-        <v>180.286565</v>
+        <v>321.31094899999999</v>
       </c>
       <c r="P13">
-        <v>180.484239</v>
+        <v>325.50493899999998</v>
       </c>
       <c r="Q13">
-        <v>181.25875099999999</v>
+        <v>342.43057199999998</v>
       </c>
       <c r="R13">
-        <v>182.92236800000001</v>
+        <v>328.49892399999999</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1829,55 +2193,55 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>36.716076999999999</v>
+        <v>337.51856400000003</v>
       </c>
       <c r="C14">
-        <v>40.835036000000002</v>
+        <v>365.60731900000002</v>
       </c>
       <c r="D14">
-        <v>52.904874</v>
+        <v>409.06487800000002</v>
       </c>
       <c r="E14">
-        <v>65.690181999999993</v>
+        <v>682.43081700000005</v>
       </c>
       <c r="F14">
-        <v>61.632617000000003</v>
+        <v>629.65353300000004</v>
       </c>
       <c r="G14">
-        <v>58.805627999999999</v>
+        <v>661.28818899999999</v>
       </c>
       <c r="H14">
-        <v>75.489644999999996</v>
+        <v>632.72117600000001</v>
       </c>
       <c r="I14">
-        <v>79.275580000000005</v>
+        <v>702.82712100000003</v>
       </c>
       <c r="J14">
-        <v>73.612361000000007</v>
+        <v>645.59863099999995</v>
       </c>
       <c r="K14">
-        <v>75.478819000000001</v>
+        <v>664.45182699999998</v>
       </c>
       <c r="L14">
-        <v>77.064164000000005</v>
+        <v>625.25400999999999</v>
       </c>
       <c r="M14">
-        <v>65.766865999999993</v>
+        <v>664.55117900000005</v>
       </c>
       <c r="N14">
-        <v>72.812927000000002</v>
+        <v>641.72495700000002</v>
       </c>
       <c r="O14">
-        <v>84.866590000000002</v>
+        <v>651.25366299999996</v>
       </c>
       <c r="P14">
-        <v>73.277118000000002</v>
+        <v>629.84190999999998</v>
       </c>
       <c r="Q14">
-        <v>73.433570000000003</v>
+        <v>690.40509599999996</v>
       </c>
       <c r="R14">
-        <v>79.751017000000004</v>
+        <v>643.46958800000004</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1885,55 +2249,228 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>67.079429000000005</v>
+        <v>333.73659800000001</v>
       </c>
       <c r="C15">
-        <v>60.901339999999998</v>
+        <v>372.41520600000001</v>
       </c>
       <c r="D15">
-        <v>67.688882000000007</v>
+        <v>413.052458</v>
       </c>
       <c r="E15">
-        <v>75.971101000000004</v>
+        <v>593.78896699999996</v>
       </c>
       <c r="F15">
-        <v>74.440348</v>
+        <v>545.88132599999994</v>
       </c>
       <c r="G15">
-        <v>69.955264</v>
+        <v>534.73076300000002</v>
       </c>
       <c r="H15">
-        <v>69.014540999999994</v>
+        <v>536.05650000000003</v>
       </c>
       <c r="I15">
-        <v>77.503908999999993</v>
+        <v>622.66500599999995</v>
       </c>
       <c r="J15">
-        <v>80.132058000000001</v>
+        <v>533.27644999999995</v>
       </c>
       <c r="K15">
-        <v>77.763369999999995</v>
+        <v>571.23271999999997</v>
       </c>
       <c r="L15">
-        <v>74.963783000000006</v>
+        <v>539.80378099999996</v>
       </c>
       <c r="M15">
-        <v>79.803683000000007</v>
+        <v>617.426874</v>
       </c>
       <c r="N15">
-        <v>76.691379999999995</v>
+        <v>586.579072</v>
       </c>
       <c r="O15">
-        <v>93.907295000000005</v>
+        <v>907.19404899999995</v>
       </c>
       <c r="P15">
-        <v>91.550988000000004</v>
+        <v>949.64507000000003</v>
       </c>
       <c r="Q15">
-        <v>92.386007000000006</v>
+        <v>1065.5301030000001</v>
       </c>
       <c r="R15">
-        <v>97.273189000000002</v>
+        <v>982.19766800000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="C18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="D18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="E18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="F18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="G18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="H18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="I18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="J18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="K18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="L18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="M18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="N18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="O18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="P18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="Q18">
+        <v>338.98017800000002</v>
+      </c>
+      <c r="R18">
+        <v>338.98017800000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="C19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="D19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="E19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="F19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="G19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="H19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="I19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="J19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="K19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="L19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="M19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="N19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="O19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="P19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="Q19">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="R19">
+        <v>700.90592100000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="C20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="D20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="E20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="F20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="G20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="H20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="I20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="J20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="K20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="L20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="M20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="N20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="O20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="P20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="Q20">
+        <v>1055.5760789999999</v>
+      </c>
+      <c r="R20">
+        <v>1055.5760789999999</v>
       </c>
     </row>
   </sheetData>

--- a/project3/Workbook1.xlsx
+++ b/project3/Workbook1.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>fix#2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">            NUMPAD
 NUMT</t>
@@ -38,18 +35,31 @@
   <si>
     <t>fix #1</t>
   </si>
-  <si>
-    <t>fix #2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,8 +91,18 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -90,7 +110,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -117,46 +147,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0717737931134145"/>
+          <c:y val="0.117919228550651"/>
+          <c:w val="0.761357373743752"/>
+          <c:h val="0.782629450305036"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>1 - Fix#1 1Thread</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -181,9 +193,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$R$13</c:f>
+              <c:f>Sheet1!$B$11:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -246,6 +318,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>2 - Fix#1 2Threads</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -270,9 +345,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$R$14</c:f>
+              <c:f>Sheet1!$B$12:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -335,6 +470,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>3 - Fix#1 4Threads</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -359,9 +497,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$R$15</c:f>
+              <c:f>Sheet1!$B$13:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -416,82 +614,6 @@
                 <c:pt idx="16">
                   <c:v>982.197668</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$16:$R$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$17:$R$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -499,7 +621,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 - Fix#2 1 Thread</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -524,9 +649,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$R$18</c:f>
+              <c:f>Sheet1!$B$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -588,7 +773,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5 - Fix#2 2 Threads</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -619,9 +807,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$R$19</c:f>
+              <c:f>Sheet1!$B$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -683,7 +931,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6 - Fix#2 4 Threads</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -714,9 +965,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$R$20</c:f>
+              <c:f>Sheet1!$B$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -786,16 +1097,88 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1011700640"/>
-        <c:axId val="1010238032"/>
+        <c:axId val="-628410256"/>
+        <c:axId val="-628407264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1011700640"/>
+        <c:axId val="-628410256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>NUM</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -832,7 +1215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1010238032"/>
+        <c:crossAx val="-628407264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -840,7 +1223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1010238032"/>
+        <c:axId val="-628407264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,6 +1243,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Sppedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -890,7 +1330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1011700640"/>
+        <c:crossAx val="-628410256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,7 +1343,1279 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.844971796683538"/>
+          <c:y val="0.361010087376977"/>
+          <c:w val="0.138889765914106"/>
+          <c:h val="0.282976983246467"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0686562495048108"/>
+          <c:y val="0.0539054432931059"/>
+          <c:w val="0.78973477879769"/>
+          <c:h val="0.843081517023916"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 - Fix#1 1 Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>169.229077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.751908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.359556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.505483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.953967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.341611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.529879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174.29118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.765596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169.896109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168.73223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170.053567</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167.441082</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168.570104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170.739516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>169.833351</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.364281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 - Fix#1 2Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>48.014078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.747796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.996909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.925043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.960793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.651342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.428803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.827741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.190105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.713182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126.918049</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121.674484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126.376716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.955309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112.373755</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.314877</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>142.817868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 - Fix#1 4Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>64.969554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.914249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.543619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.905505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.887507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.789068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.351292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.055892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.912393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.721088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.776155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111.39672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>112.730675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.849004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.720921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>165.966151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>152.739381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 - Fix#2 1Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.843798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5 - Fix#2 2Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162.090974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6 - Fix#2 4Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>184.652599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-584745248"/>
+        <c:axId val="-584742928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-584745248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>NUM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-584742928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-584742928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Sppedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-584745248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1011,6 +2723,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1514,20 +3266,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601381</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>747059</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>74407</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1541,6 +3796,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>202044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1812,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" zoomScaleNormal="63" zoomScalePageLayoutView="63" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1825,7 +4110,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2047,434 +4332,569 @@
         <v>152.73938100000001</v>
       </c>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="C5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="D5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="E5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="F5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="G5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="H5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="I5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="J5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="K5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="L5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="M5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="N5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="O5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="P5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="Q5">
+        <v>170.84379799999999</v>
+      </c>
+      <c r="R5">
+        <v>170.84379799999999</v>
+      </c>
+    </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>0</v>
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="C6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="D6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="E6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="F6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="G6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="H6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="I6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="J6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="K6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="L6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="M6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="N6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="O6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="P6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="Q6">
+        <v>162.09097399999999</v>
+      </c>
+      <c r="R6">
+        <v>162.09097399999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="C7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="D7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="E7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="F7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="G7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="H7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="I7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="J7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="K7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="L7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="M7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="N7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="O7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="P7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="Q7">
+        <v>184.65259900000001</v>
+      </c>
+      <c r="R7">
+        <v>184.65259900000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>170.84379799999999</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>162.09097399999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>184.65259900000001</v>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>344.71169200000003</v>
+      </c>
+      <c r="C11">
+        <v>338.59280799999999</v>
+      </c>
+      <c r="D11">
+        <v>325.934617</v>
+      </c>
+      <c r="E11">
+        <v>344.317047</v>
+      </c>
+      <c r="F11">
+        <v>325.27729900000003</v>
+      </c>
+      <c r="G11">
+        <v>318.01305400000001</v>
+      </c>
+      <c r="H11">
+        <v>331.39467500000001</v>
+      </c>
+      <c r="I11">
+        <v>339.19288999999998</v>
+      </c>
+      <c r="J11">
+        <v>330.74798600000003</v>
+      </c>
+      <c r="K11">
+        <v>328.77432900000002</v>
+      </c>
+      <c r="L11">
+        <v>324.89948399999997</v>
+      </c>
+      <c r="M11">
+        <v>331.76573999999999</v>
+      </c>
+      <c r="N11">
+        <v>330.33281099999999</v>
+      </c>
+      <c r="O11">
+        <v>321.31094899999999</v>
+      </c>
+      <c r="P11">
+        <v>325.50493899999998</v>
+      </c>
+      <c r="Q11">
+        <v>342.43057199999998</v>
+      </c>
+      <c r="R11">
+        <v>328.49892399999999</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>337.51856400000003</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>365.60731900000002</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>409.06487800000002</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>682.43081700000005</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>629.65353300000004</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>661.28818899999999</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>632.72117600000001</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>702.82712100000003</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>645.59863099999995</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>664.45182699999998</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>625.25400999999999</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>664.55117900000005</v>
       </c>
       <c r="N12">
-        <v>12</v>
+        <v>641.72495700000002</v>
       </c>
       <c r="O12">
-        <v>13</v>
+        <v>651.25366299999996</v>
       </c>
       <c r="P12">
-        <v>14</v>
+        <v>629.84190999999998</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>690.40509599999996</v>
       </c>
       <c r="R12">
-        <v>16</v>
+        <v>643.46958800000004</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>344.71169200000003</v>
+        <v>333.73659800000001</v>
       </c>
       <c r="C13">
-        <v>338.59280799999999</v>
+        <v>372.41520600000001</v>
       </c>
       <c r="D13">
-        <v>325.934617</v>
+        <v>413.052458</v>
       </c>
       <c r="E13">
-        <v>344.317047</v>
+        <v>593.78896699999996</v>
       </c>
       <c r="F13">
-        <v>325.27729900000003</v>
+        <v>545.88132599999994</v>
       </c>
       <c r="G13">
-        <v>318.01305400000001</v>
+        <v>534.73076300000002</v>
       </c>
       <c r="H13">
-        <v>331.39467500000001</v>
+        <v>536.05650000000003</v>
       </c>
       <c r="I13">
-        <v>339.19288999999998</v>
+        <v>622.66500599999995</v>
       </c>
       <c r="J13">
-        <v>330.74798600000003</v>
+        <v>533.27644999999995</v>
       </c>
       <c r="K13">
-        <v>328.77432900000002</v>
+        <v>571.23271999999997</v>
       </c>
       <c r="L13">
-        <v>324.89948399999997</v>
+        <v>539.80378099999996</v>
       </c>
       <c r="M13">
-        <v>331.76573999999999</v>
+        <v>617.426874</v>
       </c>
       <c r="N13">
-        <v>330.33281099999999</v>
+        <v>586.579072</v>
       </c>
       <c r="O13">
-        <v>321.31094899999999</v>
+        <v>907.19404899999995</v>
       </c>
       <c r="P13">
-        <v>325.50493899999998</v>
+        <v>949.64507000000003</v>
       </c>
       <c r="Q13">
-        <v>342.43057199999998</v>
+        <v>1065.5301030000001</v>
       </c>
       <c r="R13">
-        <v>328.49892399999999</v>
+        <v>982.19766800000002</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>337.51856400000003</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="C14">
-        <v>365.60731900000002</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="D14">
-        <v>409.06487800000002</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="E14">
-        <v>682.43081700000005</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="F14">
-        <v>629.65353300000004</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="G14">
-        <v>661.28818899999999</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="H14">
-        <v>632.72117600000001</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="I14">
-        <v>702.82712100000003</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="J14">
-        <v>645.59863099999995</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="K14">
-        <v>664.45182699999998</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="L14">
-        <v>625.25400999999999</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="M14">
-        <v>664.55117900000005</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="N14">
-        <v>641.72495700000002</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="O14">
-        <v>651.25366299999996</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="P14">
-        <v>629.84190999999998</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="Q14">
-        <v>690.40509599999996</v>
+        <v>338.98017800000002</v>
       </c>
       <c r="R14">
-        <v>643.46958800000004</v>
+        <v>338.98017800000002</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="C15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="D15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="E15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="F15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="G15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="H15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="I15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="J15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="K15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="L15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="M15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="N15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="O15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="P15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="Q15">
+        <v>700.90592100000003</v>
+      </c>
+      <c r="R15">
+        <v>700.90592100000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>333.73659800000001</v>
-      </c>
-      <c r="C15">
-        <v>372.41520600000001</v>
-      </c>
-      <c r="D15">
-        <v>413.052458</v>
-      </c>
-      <c r="E15">
-        <v>593.78896699999996</v>
-      </c>
-      <c r="F15">
-        <v>545.88132599999994</v>
-      </c>
-      <c r="G15">
-        <v>534.73076300000002</v>
-      </c>
-      <c r="H15">
-        <v>536.05650000000003</v>
-      </c>
-      <c r="I15">
-        <v>622.66500599999995</v>
-      </c>
-      <c r="J15">
-        <v>533.27644999999995</v>
-      </c>
-      <c r="K15">
-        <v>571.23271999999997</v>
-      </c>
-      <c r="L15">
-        <v>539.80378099999996</v>
-      </c>
-      <c r="M15">
-        <v>617.426874</v>
-      </c>
-      <c r="N15">
-        <v>586.579072</v>
-      </c>
-      <c r="O15">
-        <v>907.19404899999995</v>
-      </c>
-      <c r="P15">
-        <v>949.64507000000003</v>
-      </c>
-      <c r="Q15">
-        <v>1065.5301030000001</v>
-      </c>
-      <c r="R15">
-        <v>982.19766800000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="C18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="D18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="E18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="F18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="G18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="H18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="I18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="J18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="K18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="L18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="M18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="N18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="O18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="P18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="Q18">
-        <v>338.98017800000002</v>
-      </c>
-      <c r="R18">
-        <v>338.98017800000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="C19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="D19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="E19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="F19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="G19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="H19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="I19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="J19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="K19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="L19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="M19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="N19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="O19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="P19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="Q19">
-        <v>700.90592100000003</v>
-      </c>
-      <c r="R19">
-        <v>700.90592100000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
+      <c r="B16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="C20">
+      <c r="C16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="D20">
+      <c r="D16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="E20">
+      <c r="E16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="F20">
+      <c r="F16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="G20">
+      <c r="G16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="H20">
+      <c r="H16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="I20">
+      <c r="I16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="J20">
+      <c r="J16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="K20">
+      <c r="K16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="L20">
+      <c r="L16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="M20">
+      <c r="M16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="N20">
+      <c r="N16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="O20">
+      <c r="O16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="P20">
+      <c r="P16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="Q20">
+      <c r="Q16">
         <v>1055.5760789999999</v>
       </c>
-      <c r="R20">
+      <c r="R16">
         <v>1055.5760789999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project3/Workbook1.xlsx
+++ b/project3/Workbook1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t xml:space="preserve">            NUMPAD
 NUMT</t>
@@ -1097,11 +1097,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-628410256"/>
-        <c:axId val="-628407264"/>
+        <c:axId val="-1421511312"/>
+        <c:axId val="-1421673664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-628410256"/>
+        <c:axId val="-1421511312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628407264"/>
+        <c:crossAx val="-1421673664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1223,7 +1223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-628407264"/>
+        <c:axId val="-1421673664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628410256"/>
+        <c:crossAx val="-1421511312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2384,11 +2384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-584745248"/>
-        <c:axId val="-584742928"/>
+        <c:axId val="-1377551200"/>
+        <c:axId val="-1377547440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-584745248"/>
+        <c:axId val="-1377551200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-584742928"/>
+        <c:crossAx val="-1377547440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2495,7 +2495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-584742928"/>
+        <c:axId val="-1377547440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2602,1263 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-584745248"/>
+        <c:crossAx val="-1377551200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.074457712297323"/>
+          <c:y val="0.0686156080698078"/>
+          <c:w val="0.761816672687167"/>
+          <c:h val="0.828737423285814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fix#1 1Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10.28497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.290404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.110118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.28502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.114072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.110889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.184755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.123508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.111523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.112225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.200566</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.12104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.196507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.198059</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.113561</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.290756</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.119005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Fix#1 2Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.797908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.374955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.548841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.597517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.014367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.820094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.980432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.435613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.077919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.491364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.266181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.09459</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.257061</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.243823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.092542</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.426597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.097734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fix#1 4Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8.221563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.808704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.730304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.088198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.671744999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.667189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.425076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.015971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.024684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.942341000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.298509</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.136936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.217289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.500135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.723623</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.289719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.738978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Fix#2 1Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.323735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Fix#2 2Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.536428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Fix#2 4Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.546716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1264648464"/>
+        <c:axId val="-1264632240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1264648464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>NUM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>PAD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1264632240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1264632240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1264648464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2763,6 +4019,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3769,20 +5065,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601381</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127748</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>78439</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>747059</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>74407</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3803,15 +5602,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42209</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>784412</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>202044</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3826,6 +5625,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>955700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4097,10 +5926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" zoomScaleNormal="63" zoomScalePageLayoutView="63" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="63" zoomScalePageLayoutView="63" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4892,6 +6721,398 @@
         <v>1055.5760789999999</v>
       </c>
     </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+      <c r="R19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>10.28497</v>
+      </c>
+      <c r="C20">
+        <v>10.290404000000001</v>
+      </c>
+      <c r="D20">
+        <v>10.110118</v>
+      </c>
+      <c r="E20">
+        <v>10.285019999999999</v>
+      </c>
+      <c r="F20">
+        <v>10.114072</v>
+      </c>
+      <c r="G20">
+        <v>10.110889</v>
+      </c>
+      <c r="H20">
+        <v>10.184754999999999</v>
+      </c>
+      <c r="I20">
+        <v>10.123507999999999</v>
+      </c>
+      <c r="J20">
+        <v>10.111523</v>
+      </c>
+      <c r="K20">
+        <v>10.112225</v>
+      </c>
+      <c r="L20">
+        <v>10.200566</v>
+      </c>
+      <c r="M20">
+        <v>10.121040000000001</v>
+      </c>
+      <c r="N20">
+        <v>10.196507</v>
+      </c>
+      <c r="O20">
+        <v>10.198059000000001</v>
+      </c>
+      <c r="P20">
+        <v>10.113561000000001</v>
+      </c>
+      <c r="Q20">
+        <v>10.290756</v>
+      </c>
+      <c r="R20">
+        <v>10.119005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>6.7979079999999996</v>
+      </c>
+      <c r="C21">
+        <v>6.3749549999999999</v>
+      </c>
+      <c r="D21">
+        <v>6.5488410000000004</v>
+      </c>
+      <c r="E21">
+        <v>6.5975169999999999</v>
+      </c>
+      <c r="F21">
+        <v>6.014367</v>
+      </c>
+      <c r="G21">
+        <v>9.8200939999999992</v>
+      </c>
+      <c r="H21">
+        <v>9.9804320000000004</v>
+      </c>
+      <c r="I21">
+        <v>20.435613</v>
+      </c>
+      <c r="J21">
+        <v>20.077919000000001</v>
+      </c>
+      <c r="K21">
+        <v>19.491364000000001</v>
+      </c>
+      <c r="L21">
+        <v>20.266181</v>
+      </c>
+      <c r="M21">
+        <v>20.09459</v>
+      </c>
+      <c r="N21">
+        <v>20.257061</v>
+      </c>
+      <c r="O21">
+        <v>20.243822999999999</v>
+      </c>
+      <c r="P21">
+        <v>20.092542000000002</v>
+      </c>
+      <c r="Q21">
+        <v>20.426597000000001</v>
+      </c>
+      <c r="R21">
+        <v>20.097733999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>8.2215629999999997</v>
+      </c>
+      <c r="C22">
+        <v>6.8087039999999996</v>
+      </c>
+      <c r="D22">
+        <v>6.7303040000000003</v>
+      </c>
+      <c r="E22">
+        <v>7.0881980000000002</v>
+      </c>
+      <c r="F22">
+        <v>6.6717449999999996</v>
+      </c>
+      <c r="G22">
+        <v>9.6671890000000005</v>
+      </c>
+      <c r="H22">
+        <v>9.4250760000000007</v>
+      </c>
+      <c r="I22">
+        <v>11.015971</v>
+      </c>
+      <c r="J22">
+        <v>10.024684000000001</v>
+      </c>
+      <c r="K22">
+        <v>9.9423410000000008</v>
+      </c>
+      <c r="L22">
+        <v>12.298508999999999</v>
+      </c>
+      <c r="M22">
+        <v>12.136936</v>
+      </c>
+      <c r="N22">
+        <v>12.217288999999999</v>
+      </c>
+      <c r="O22">
+        <v>11.500135</v>
+      </c>
+      <c r="P22">
+        <v>12.723623</v>
+      </c>
+      <c r="Q22">
+        <v>40.289718999999998</v>
+      </c>
+      <c r="R22">
+        <v>39.738978000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="C23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="D23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="E23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="F23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="G23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="H23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="I23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="J23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="K23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="L23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="M23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="N23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="O23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="P23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="Q23">
+        <v>10.323734999999999</v>
+      </c>
+      <c r="R23">
+        <v>10.323734999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="C24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="D24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="E24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="F24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="G24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="H24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="I24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="J24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="K24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="L24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="M24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="N24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="O24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="P24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="Q24">
+        <v>20.536428000000001</v>
+      </c>
+      <c r="R24">
+        <v>20.536428000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="C25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="D25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="E25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="F25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="G25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="H25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="I25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="J25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="K25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="L25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="M25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="N25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="O25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="P25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="Q25">
+        <v>40.546716000000004</v>
+      </c>
+      <c r="R25">
+        <v>40.546716000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
